--- a/xl-template.xlsx
+++ b/xl-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Personal Stuff\Coding\Personal\Musicnotes-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71346399-1CDD-4447-9D06-22F7A1A4D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FBDCE-F7E2-4744-9015-C1D34F4DCF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Downloads</t>
   </si>
@@ -33,6 +33,9 @@
   <si>
     <t>Arrangement</t>
   </si>
+  <si>
+    <t>QQ</t>
+  </si>
 </sst>
 </file>
 
@@ -41,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +63,15 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -113,6 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D200"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +454,11 @@
     <col min="4" max="4" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
